--- a/Thesis-codes/Exp-1/results-archive/results-1/fc1_all_dataset.xlsx
+++ b/Thesis-codes/Exp-1/results-archive/results-1/fc1_all_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/thleeag_connect_ust_hk/Documents/MPhil-thesis-github-library/MPhil-thesis/Thesis-codes/Exp-1/results-archive/results-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - HKUST Connect\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\Exp-1\results-archive\results-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{C4F658B1-BF4D-4652-A8CC-0E5AD151CF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26C10828-44F5-4802-BBDC-3DDF658CAB80}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEBF36E-AC92-4A45-A887-F846DBFCFD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" tabRatio="219" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,12 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:R61"/>
+  <dimension ref="B1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1221,7 +1220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1238,7 +1237,7 @@
         <v>0.33379999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>0.33360000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>0.33450000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>0.34160000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>0.34739999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>15.687900000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>20.856100000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>16.454699999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>23.101099999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>27.055800000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>28.9985</v>
       </c>
     </row>
-    <row r="18" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>24.199400000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>25.035499999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>0.54039999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>17.154699999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>27.538799999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>66</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>0.45689999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>29.0884</v>
       </c>
     </row>
-    <row r="26" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>34.6479</v>
       </c>
     </row>
-    <row r="28" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>29.5794</v>
       </c>
     </row>
-    <row r="29" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>28.782900000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>0.51070000000000004</v>
       </c>
     </row>
-    <row r="31" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>28.2334</v>
       </c>
     </row>
-    <row r="32" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>35.932099999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>33.230200000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>32.878799999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
         <v>20</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>33.982100000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>34.482399999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>29.395900000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>38.0869</v>
       </c>
     </row>
-    <row r="39" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>40.389699999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>37.700099999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>53</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>29.062200000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>35.851900000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>37.130899999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>29.097300000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
         <v>68</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>0.63749999999999996</v>
       </c>
     </row>
-    <row r="46" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>20.568300000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>69</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>0.57020000000000004</v>
       </c>
     </row>
-    <row r="48" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>21.027799999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>65</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>31.7547</v>
       </c>
     </row>
-    <row r="51" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>29.1343</v>
       </c>
     </row>
-    <row r="52" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>36.268599999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>70</v>
       </c>
@@ -3401,7 +3400,7 @@
         <v>0.43409999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
         <v>31</v>
       </c>
@@ -3454,7 +3453,7 @@
         <v>32.329300000000003</v>
       </c>
     </row>
-    <row r="55" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>30.698499999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>36</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>54.767899999999997</v>
       </c>
     </row>
-    <row r="57" spans="2:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
         <v>46</v>
       </c>
@@ -3613,22 +3612,8 @@
         <v>53.522100000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:18" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="2:18" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="2:18" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="2:18" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <autoFilter ref="B1:R61" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CNN-sg5"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg5'"/>
-        <filter val="GRU-sg5"/>
-        <filter val="LSTM-sg5"/>
-        <filter val="RNN-sg5"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:R61">
       <sortCondition ref="C1:C61"/>
     </sortState>
